--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_104.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_104.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33052-d84331-Reviews-Casa_del_Mar-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1098</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Casa-Del-Mar.h328747.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_104.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_104.xlsx
@@ -2033,7 +2033,7 @@
     <t>Happy hour drinks at Hotel Casa del Mar in Santa Monica: great atmosphere, beautiful hotel, great views of beach and ocean, nice piano player. Small but nice selection of draft beer and wines, $12 thin crust pizzas were great. Great place to meet for drinks. Don't forget your sunglasses. Parking is tough so don't forget to feed the meters. Easy walk to the Santa Monica pier. More</t>
   </si>
   <si>
-    <t>christian206traveler</t>
+    <t>Christian S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33052-d84331-r512477999-Hotel_Casa_del_Mar-Santa_Monica_California.html</t>
@@ -12767,7 +12767,7 @@
         <v>38111</v>
       </c>
       <c r="B2" t="n">
-        <v>130257</v>
+        <v>160974</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -12838,7 +12838,7 @@
         <v>38111</v>
       </c>
       <c r="B3" t="n">
-        <v>130258</v>
+        <v>160975</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -12968,7 +12968,7 @@
         <v>38111</v>
       </c>
       <c r="B5" t="n">
-        <v>130259</v>
+        <v>160976</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -13118,7 +13118,7 @@
         <v>38111</v>
       </c>
       <c r="B7" t="n">
-        <v>130260</v>
+        <v>160977</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -13315,7 +13315,7 @@
         <v>38111</v>
       </c>
       <c r="B10" t="n">
-        <v>130261</v>
+        <v>160978</v>
       </c>
       <c r="C10" t="s">
         <v>109</v>
@@ -13386,7 +13386,7 @@
         <v>38111</v>
       </c>
       <c r="B11" t="n">
-        <v>130262</v>
+        <v>160979</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -13457,7 +13457,7 @@
         <v>38111</v>
       </c>
       <c r="B12" t="n">
-        <v>130263</v>
+        <v>160980</v>
       </c>
       <c r="C12" t="s">
         <v>121</v>
@@ -13528,7 +13528,7 @@
         <v>38111</v>
       </c>
       <c r="B13" t="n">
-        <v>130264</v>
+        <v>160981</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -13599,7 +13599,7 @@
         <v>38111</v>
       </c>
       <c r="B14" t="n">
-        <v>130265</v>
+        <v>160982</v>
       </c>
       <c r="C14" t="s">
         <v>132</v>
@@ -13660,7 +13660,7 @@
         <v>38111</v>
       </c>
       <c r="B15" t="n">
-        <v>130266</v>
+        <v>160983</v>
       </c>
       <c r="C15" t="s">
         <v>139</v>
@@ -13731,7 +13731,7 @@
         <v>38111</v>
       </c>
       <c r="B16" t="n">
-        <v>130267</v>
+        <v>160984</v>
       </c>
       <c r="C16" t="s">
         <v>146</v>
@@ -13853,7 +13853,7 @@
         <v>38111</v>
       </c>
       <c r="B18" t="n">
-        <v>130268</v>
+        <v>160985</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -13924,7 +13924,7 @@
         <v>38111</v>
       </c>
       <c r="B19" t="n">
-        <v>130269</v>
+        <v>160986</v>
       </c>
       <c r="C19" t="s">
         <v>166</v>
@@ -14066,7 +14066,7 @@
         <v>38111</v>
       </c>
       <c r="B21" t="n">
-        <v>130270</v>
+        <v>160987</v>
       </c>
       <c r="C21" t="s">
         <v>179</v>
@@ -14137,7 +14137,7 @@
         <v>38111</v>
       </c>
       <c r="B22" t="n">
-        <v>130271</v>
+        <v>160988</v>
       </c>
       <c r="C22" t="s">
         <v>184</v>
@@ -14208,7 +14208,7 @@
         <v>38111</v>
       </c>
       <c r="B23" t="n">
-        <v>130272</v>
+        <v>160989</v>
       </c>
       <c r="C23" t="s">
         <v>190</v>
@@ -14275,7 +14275,7 @@
         <v>38111</v>
       </c>
       <c r="B24" t="n">
-        <v>130273</v>
+        <v>160990</v>
       </c>
       <c r="C24" t="s">
         <v>197</v>
@@ -14336,7 +14336,7 @@
         <v>38111</v>
       </c>
       <c r="B25" t="n">
-        <v>130274</v>
+        <v>160991</v>
       </c>
       <c r="C25" t="s">
         <v>204</v>
@@ -14468,7 +14468,7 @@
         <v>38111</v>
       </c>
       <c r="B27" t="n">
-        <v>130275</v>
+        <v>160992</v>
       </c>
       <c r="C27" t="s">
         <v>217</v>
@@ -14539,7 +14539,7 @@
         <v>38111</v>
       </c>
       <c r="B28" t="n">
-        <v>130276</v>
+        <v>160993</v>
       </c>
       <c r="C28" t="s">
         <v>223</v>
@@ -14596,7 +14596,7 @@
         <v>38111</v>
       </c>
       <c r="B29" t="n">
-        <v>130277</v>
+        <v>160994</v>
       </c>
       <c r="C29" t="s">
         <v>229</v>
@@ -14667,7 +14667,7 @@
         <v>38111</v>
       </c>
       <c r="B30" t="n">
-        <v>130278</v>
+        <v>160995</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
@@ -14724,7 +14724,7 @@
         <v>38111</v>
       </c>
       <c r="B31" t="n">
-        <v>130279</v>
+        <v>160996</v>
       </c>
       <c r="C31" t="s">
         <v>241</v>
@@ -14789,7 +14789,7 @@
         <v>38111</v>
       </c>
       <c r="B32" t="n">
-        <v>130280</v>
+        <v>160997</v>
       </c>
       <c r="C32" t="s">
         <v>247</v>
@@ -14860,7 +14860,7 @@
         <v>38111</v>
       </c>
       <c r="B33" t="n">
-        <v>130281</v>
+        <v>160998</v>
       </c>
       <c r="C33" t="s">
         <v>253</v>
@@ -14931,7 +14931,7 @@
         <v>38111</v>
       </c>
       <c r="B34" t="n">
-        <v>130282</v>
+        <v>160999</v>
       </c>
       <c r="C34" t="s">
         <v>259</v>
@@ -14992,7 +14992,7 @@
         <v>38111</v>
       </c>
       <c r="B35" t="n">
-        <v>130283</v>
+        <v>161000</v>
       </c>
       <c r="C35" t="s">
         <v>265</v>
@@ -15063,7 +15063,7 @@
         <v>38111</v>
       </c>
       <c r="B36" t="n">
-        <v>130284</v>
+        <v>161001</v>
       </c>
       <c r="C36" t="s">
         <v>271</v>
@@ -15134,7 +15134,7 @@
         <v>38111</v>
       </c>
       <c r="B37" t="n">
-        <v>130285</v>
+        <v>161002</v>
       </c>
       <c r="C37" t="s">
         <v>277</v>
@@ -15266,7 +15266,7 @@
         <v>38111</v>
       </c>
       <c r="B39" t="n">
-        <v>130286</v>
+        <v>161003</v>
       </c>
       <c r="C39" t="s">
         <v>290</v>
@@ -15398,7 +15398,7 @@
         <v>38111</v>
       </c>
       <c r="B41" t="n">
-        <v>130287</v>
+        <v>161004</v>
       </c>
       <c r="C41" t="s">
         <v>304</v>
@@ -15465,7 +15465,7 @@
         <v>38111</v>
       </c>
       <c r="B42" t="n">
-        <v>130288</v>
+        <v>161005</v>
       </c>
       <c r="C42" t="s">
         <v>312</v>
@@ -15530,7 +15530,7 @@
         <v>38111</v>
       </c>
       <c r="B43" t="n">
-        <v>130289</v>
+        <v>161006</v>
       </c>
       <c r="C43" t="s">
         <v>319</v>
@@ -15601,7 +15601,7 @@
         <v>38111</v>
       </c>
       <c r="B44" t="n">
-        <v>130290</v>
+        <v>161007</v>
       </c>
       <c r="C44" t="s">
         <v>326</v>
@@ -15666,7 +15666,7 @@
         <v>38111</v>
       </c>
       <c r="B45" t="n">
-        <v>130291</v>
+        <v>161008</v>
       </c>
       <c r="C45" t="s">
         <v>332</v>
@@ -15731,7 +15731,7 @@
         <v>38111</v>
       </c>
       <c r="B46" t="n">
-        <v>130292</v>
+        <v>161009</v>
       </c>
       <c r="C46" t="s">
         <v>339</v>
@@ -15792,7 +15792,7 @@
         <v>38111</v>
       </c>
       <c r="B47" t="n">
-        <v>130293</v>
+        <v>161010</v>
       </c>
       <c r="C47" t="s">
         <v>345</v>
@@ -15859,7 +15859,7 @@
         <v>38111</v>
       </c>
       <c r="B48" t="n">
-        <v>130294</v>
+        <v>161011</v>
       </c>
       <c r="C48" t="s">
         <v>352</v>
@@ -16119,7 +16119,7 @@
         <v>38111</v>
       </c>
       <c r="B52" t="n">
-        <v>130295</v>
+        <v>161012</v>
       </c>
       <c r="C52" t="s">
         <v>375</v>
@@ -16251,7 +16251,7 @@
         <v>38111</v>
       </c>
       <c r="B54" t="n">
-        <v>130296</v>
+        <v>161013</v>
       </c>
       <c r="C54" t="s">
         <v>388</v>
@@ -16318,7 +16318,7 @@
         <v>38111</v>
       </c>
       <c r="B55" t="n">
-        <v>130297</v>
+        <v>161014</v>
       </c>
       <c r="C55" t="s">
         <v>396</v>
@@ -16379,7 +16379,7 @@
         <v>38111</v>
       </c>
       <c r="B56" t="n">
-        <v>130298</v>
+        <v>161015</v>
       </c>
       <c r="C56" t="s">
         <v>402</v>
@@ -16521,7 +16521,7 @@
         <v>38111</v>
       </c>
       <c r="B58" t="n">
-        <v>130299</v>
+        <v>161016</v>
       </c>
       <c r="C58" t="s">
         <v>414</v>
@@ -16592,7 +16592,7 @@
         <v>38111</v>
       </c>
       <c r="B59" t="n">
-        <v>130300</v>
+        <v>161017</v>
       </c>
       <c r="C59" t="s">
         <v>418</v>
@@ -16667,7 +16667,7 @@
         <v>38111</v>
       </c>
       <c r="B60" t="n">
-        <v>130301</v>
+        <v>161018</v>
       </c>
       <c r="C60" t="s">
         <v>427</v>
@@ -16799,7 +16799,7 @@
         <v>38111</v>
       </c>
       <c r="B62" t="n">
-        <v>130302</v>
+        <v>161019</v>
       </c>
       <c r="C62" t="s">
         <v>442</v>
@@ -16864,7 +16864,7 @@
         <v>38111</v>
       </c>
       <c r="B63" t="n">
-        <v>130303</v>
+        <v>161020</v>
       </c>
       <c r="C63" t="s">
         <v>451</v>
@@ -16925,7 +16925,7 @@
         <v>38111</v>
       </c>
       <c r="B64" t="n">
-        <v>130304</v>
+        <v>161021</v>
       </c>
       <c r="C64" t="s">
         <v>457</v>
@@ -17057,7 +17057,7 @@
         <v>38111</v>
       </c>
       <c r="B66" t="n">
-        <v>130305</v>
+        <v>161022</v>
       </c>
       <c r="C66" t="s">
         <v>476</v>
@@ -17193,7 +17193,7 @@
         <v>38111</v>
       </c>
       <c r="B68" t="n">
-        <v>130306</v>
+        <v>161023</v>
       </c>
       <c r="C68" t="s">
         <v>492</v>
@@ -17264,7 +17264,7 @@
         <v>38111</v>
       </c>
       <c r="B69" t="n">
-        <v>130307</v>
+        <v>161024</v>
       </c>
       <c r="C69" t="s">
         <v>501</v>
@@ -17339,7 +17339,7 @@
         <v>38111</v>
       </c>
       <c r="B70" t="n">
-        <v>130308</v>
+        <v>161025</v>
       </c>
       <c r="C70" t="s">
         <v>510</v>
@@ -17414,7 +17414,7 @@
         <v>38111</v>
       </c>
       <c r="B71" t="n">
-        <v>130309</v>
+        <v>161026</v>
       </c>
       <c r="C71" t="s">
         <v>519</v>
@@ -17489,7 +17489,7 @@
         <v>38111</v>
       </c>
       <c r="B72" t="n">
-        <v>130310</v>
+        <v>161027</v>
       </c>
       <c r="C72" t="s">
         <v>528</v>
@@ -17564,7 +17564,7 @@
         <v>38111</v>
       </c>
       <c r="B73" t="n">
-        <v>130311</v>
+        <v>161028</v>
       </c>
       <c r="C73" t="s">
         <v>534</v>
@@ -17639,7 +17639,7 @@
         <v>38111</v>
       </c>
       <c r="B74" t="n">
-        <v>130312</v>
+        <v>161029</v>
       </c>
       <c r="C74" t="s">
         <v>543</v>
@@ -17779,7 +17779,7 @@
         <v>38111</v>
       </c>
       <c r="B76" t="n">
-        <v>130313</v>
+        <v>161030</v>
       </c>
       <c r="C76" t="s">
         <v>559</v>
@@ -17850,7 +17850,7 @@
         <v>38111</v>
       </c>
       <c r="B77" t="n">
-        <v>130314</v>
+        <v>161031</v>
       </c>
       <c r="C77" t="s">
         <v>568</v>
@@ -17921,7 +17921,7 @@
         <v>38111</v>
       </c>
       <c r="B78" t="n">
-        <v>130315</v>
+        <v>161032</v>
       </c>
       <c r="C78" t="s">
         <v>575</v>
@@ -17996,7 +17996,7 @@
         <v>38111</v>
       </c>
       <c r="B79" t="n">
-        <v>130316</v>
+        <v>161033</v>
       </c>
       <c r="C79" t="s">
         <v>580</v>
@@ -18071,7 +18071,7 @@
         <v>38111</v>
       </c>
       <c r="B80" t="n">
-        <v>130317</v>
+        <v>161034</v>
       </c>
       <c r="C80" t="s">
         <v>586</v>
@@ -18132,7 +18132,7 @@
         <v>38111</v>
       </c>
       <c r="B81" t="n">
-        <v>130318</v>
+        <v>161035</v>
       </c>
       <c r="C81" t="s">
         <v>595</v>
@@ -18197,7 +18197,7 @@
         <v>38111</v>
       </c>
       <c r="B82" t="n">
-        <v>130319</v>
+        <v>161036</v>
       </c>
       <c r="C82" t="s">
         <v>602</v>
@@ -18270,7 +18270,7 @@
         <v>38111</v>
       </c>
       <c r="B83" t="n">
-        <v>130320</v>
+        <v>161037</v>
       </c>
       <c r="C83" t="s">
         <v>611</v>
@@ -18345,7 +18345,7 @@
         <v>38111</v>
       </c>
       <c r="B84" t="n">
-        <v>130321</v>
+        <v>161038</v>
       </c>
       <c r="C84" t="s">
         <v>620</v>
@@ -18410,7 +18410,7 @@
         <v>38111</v>
       </c>
       <c r="B85" t="n">
-        <v>130322</v>
+        <v>161039</v>
       </c>
       <c r="C85" t="s">
         <v>627</v>
@@ -18556,7 +18556,7 @@
         <v>38111</v>
       </c>
       <c r="B87" t="n">
-        <v>130323</v>
+        <v>161040</v>
       </c>
       <c r="C87" t="s">
         <v>641</v>
@@ -18621,7 +18621,7 @@
         <v>38111</v>
       </c>
       <c r="B88" t="n">
-        <v>130324</v>
+        <v>44699</v>
       </c>
       <c r="C88" t="s">
         <v>651</v>
@@ -18690,7 +18690,7 @@
         <v>38111</v>
       </c>
       <c r="B89" t="n">
-        <v>130325</v>
+        <v>161041</v>
       </c>
       <c r="C89" t="s">
         <v>660</v>
@@ -18840,7 +18840,7 @@
         <v>38111</v>
       </c>
       <c r="B91" t="n">
-        <v>130326</v>
+        <v>161042</v>
       </c>
       <c r="C91" t="s">
         <v>675</v>
@@ -18905,7 +18905,7 @@
         <v>38111</v>
       </c>
       <c r="B92" t="n">
-        <v>130327</v>
+        <v>161043</v>
       </c>
       <c r="C92" t="s">
         <v>682</v>
@@ -18978,7 +18978,7 @@
         <v>38111</v>
       </c>
       <c r="B93" t="n">
-        <v>130328</v>
+        <v>161044</v>
       </c>
       <c r="C93" t="s">
         <v>689</v>
@@ -19053,7 +19053,7 @@
         <v>38111</v>
       </c>
       <c r="B94" t="n">
-        <v>130329</v>
+        <v>161045</v>
       </c>
       <c r="C94" t="s">
         <v>698</v>
@@ -19118,7 +19118,7 @@
         <v>38111</v>
       </c>
       <c r="B95" t="n">
-        <v>130330</v>
+        <v>161046</v>
       </c>
       <c r="C95" t="s">
         <v>705</v>
@@ -19183,7 +19183,7 @@
         <v>38111</v>
       </c>
       <c r="B96" t="n">
-        <v>130331</v>
+        <v>161047</v>
       </c>
       <c r="C96" t="s">
         <v>714</v>
@@ -19329,7 +19329,7 @@
         <v>38111</v>
       </c>
       <c r="B98" t="n">
-        <v>130332</v>
+        <v>161048</v>
       </c>
       <c r="C98" t="s">
         <v>727</v>
@@ -19404,7 +19404,7 @@
         <v>38111</v>
       </c>
       <c r="B99" t="n">
-        <v>130333</v>
+        <v>161049</v>
       </c>
       <c r="C99" t="s">
         <v>736</v>
@@ -19479,7 +19479,7 @@
         <v>38111</v>
       </c>
       <c r="B100" t="n">
-        <v>130334</v>
+        <v>161050</v>
       </c>
       <c r="C100" t="s">
         <v>744</v>
@@ -19550,7 +19550,7 @@
         <v>38111</v>
       </c>
       <c r="B101" t="n">
-        <v>130335</v>
+        <v>161051</v>
       </c>
       <c r="C101" t="s">
         <v>751</v>
@@ -19621,7 +19621,7 @@
         <v>38111</v>
       </c>
       <c r="B102" t="n">
-        <v>130336</v>
+        <v>161052</v>
       </c>
       <c r="C102" t="s">
         <v>760</v>
@@ -19686,7 +19686,7 @@
         <v>38111</v>
       </c>
       <c r="B103" t="n">
-        <v>130337</v>
+        <v>161053</v>
       </c>
       <c r="C103" t="s">
         <v>766</v>
@@ -19761,7 +19761,7 @@
         <v>38111</v>
       </c>
       <c r="B104" t="n">
-        <v>130338</v>
+        <v>130365</v>
       </c>
       <c r="C104" t="s">
         <v>773</v>
@@ -19907,7 +19907,7 @@
         <v>38111</v>
       </c>
       <c r="B106" t="n">
-        <v>130339</v>
+        <v>161054</v>
       </c>
       <c r="C106" t="s">
         <v>788</v>
@@ -19982,7 +19982,7 @@
         <v>38111</v>
       </c>
       <c r="B107" t="n">
-        <v>130340</v>
+        <v>161055</v>
       </c>
       <c r="C107" t="s">
         <v>794</v>
@@ -20043,7 +20043,7 @@
         <v>38111</v>
       </c>
       <c r="B108" t="n">
-        <v>130341</v>
+        <v>161056</v>
       </c>
       <c r="C108" t="s">
         <v>802</v>
@@ -20112,7 +20112,7 @@
         <v>38111</v>
       </c>
       <c r="B109" t="n">
-        <v>130342</v>
+        <v>161057</v>
       </c>
       <c r="C109" t="s">
         <v>811</v>
@@ -20183,7 +20183,7 @@
         <v>38111</v>
       </c>
       <c r="B110" t="n">
-        <v>130343</v>
+        <v>161058</v>
       </c>
       <c r="C110" t="s">
         <v>817</v>
@@ -20248,7 +20248,7 @@
         <v>38111</v>
       </c>
       <c r="B111" t="n">
-        <v>130344</v>
+        <v>161059</v>
       </c>
       <c r="C111" t="s">
         <v>824</v>
@@ -20323,7 +20323,7 @@
         <v>38111</v>
       </c>
       <c r="B112" t="n">
-        <v>130345</v>
+        <v>161060</v>
       </c>
       <c r="C112" t="s">
         <v>831</v>
@@ -20388,7 +20388,7 @@
         <v>38111</v>
       </c>
       <c r="B113" t="n">
-        <v>130346</v>
+        <v>161061</v>
       </c>
       <c r="C113" t="s">
         <v>837</v>
@@ -20463,7 +20463,7 @@
         <v>38111</v>
       </c>
       <c r="B114" t="n">
-        <v>130347</v>
+        <v>161062</v>
       </c>
       <c r="C114" t="s">
         <v>845</v>
@@ -20678,7 +20678,7 @@
         <v>38111</v>
       </c>
       <c r="B117" t="n">
-        <v>130348</v>
+        <v>161063</v>
       </c>
       <c r="C117" t="s">
         <v>866</v>
@@ -20818,7 +20818,7 @@
         <v>38111</v>
       </c>
       <c r="B119" t="n">
-        <v>130349</v>
+        <v>161064</v>
       </c>
       <c r="C119" t="s">
         <v>879</v>
@@ -20954,7 +20954,7 @@
         <v>38111</v>
       </c>
       <c r="B121" t="n">
-        <v>130350</v>
+        <v>161065</v>
       </c>
       <c r="C121" t="s">
         <v>894</v>
@@ -21015,7 +21015,7 @@
         <v>38111</v>
       </c>
       <c r="B122" t="n">
-        <v>130351</v>
+        <v>161066</v>
       </c>
       <c r="C122" t="s">
         <v>900</v>
@@ -21090,7 +21090,7 @@
         <v>38111</v>
       </c>
       <c r="B123" t="n">
-        <v>130352</v>
+        <v>137539</v>
       </c>
       <c r="C123" t="s">
         <v>907</v>
@@ -21360,7 +21360,7 @@
         <v>38111</v>
       </c>
       <c r="B127" t="n">
-        <v>130353</v>
+        <v>161067</v>
       </c>
       <c r="C127" t="s">
         <v>933</v>
@@ -21496,7 +21496,7 @@
         <v>38111</v>
       </c>
       <c r="B129" t="n">
-        <v>130354</v>
+        <v>161068</v>
       </c>
       <c r="C129" t="s">
         <v>950</v>
@@ -21565,7 +21565,7 @@
         <v>38111</v>
       </c>
       <c r="B130" t="n">
-        <v>130355</v>
+        <v>161069</v>
       </c>
       <c r="C130" t="s">
         <v>957</v>
@@ -21640,7 +21640,7 @@
         <v>38111</v>
       </c>
       <c r="B131" t="n">
-        <v>130356</v>
+        <v>161070</v>
       </c>
       <c r="C131" t="s">
         <v>964</v>
@@ -21711,7 +21711,7 @@
         <v>38111</v>
       </c>
       <c r="B132" t="n">
-        <v>130357</v>
+        <v>161071</v>
       </c>
       <c r="C132" t="s">
         <v>973</v>
@@ -21857,7 +21857,7 @@
         <v>38111</v>
       </c>
       <c r="B134" t="n">
-        <v>130358</v>
+        <v>161072</v>
       </c>
       <c r="C134" t="s">
         <v>986</v>
@@ -21932,7 +21932,7 @@
         <v>38111</v>
       </c>
       <c r="B135" t="n">
-        <v>130359</v>
+        <v>161073</v>
       </c>
       <c r="C135" t="s">
         <v>994</v>
@@ -22007,7 +22007,7 @@
         <v>38111</v>
       </c>
       <c r="B136" t="n">
-        <v>130360</v>
+        <v>161074</v>
       </c>
       <c r="C136" t="s">
         <v>1001</v>
@@ -22082,7 +22082,7 @@
         <v>38111</v>
       </c>
       <c r="B137" t="n">
-        <v>130361</v>
+        <v>161075</v>
       </c>
       <c r="C137" t="s">
         <v>1010</v>
@@ -22153,7 +22153,7 @@
         <v>38111</v>
       </c>
       <c r="B138" t="n">
-        <v>130362</v>
+        <v>161076</v>
       </c>
       <c r="C138" t="s">
         <v>1016</v>
@@ -22303,7 +22303,7 @@
         <v>38111</v>
       </c>
       <c r="B140" t="n">
-        <v>130363</v>
+        <v>161077</v>
       </c>
       <c r="C140" t="s">
         <v>1029</v>
@@ -22364,7 +22364,7 @@
         <v>38111</v>
       </c>
       <c r="B141" t="n">
-        <v>130364</v>
+        <v>161078</v>
       </c>
       <c r="C141" t="s">
         <v>1035</v>
@@ -22439,7 +22439,7 @@
         <v>38111</v>
       </c>
       <c r="B142" t="n">
-        <v>130365</v>
+        <v>161079</v>
       </c>
       <c r="C142" t="s">
         <v>1044</v>
@@ -22581,7 +22581,7 @@
         <v>38111</v>
       </c>
       <c r="B144" t="n">
-        <v>130366</v>
+        <v>130293</v>
       </c>
       <c r="C144" t="s">
         <v>1057</v>
@@ -22652,7 +22652,7 @@
         <v>38111</v>
       </c>
       <c r="B145" t="n">
-        <v>130367</v>
+        <v>161080</v>
       </c>
       <c r="C145" t="s">
         <v>1061</v>
@@ -22713,7 +22713,7 @@
         <v>38111</v>
       </c>
       <c r="B146" t="n">
-        <v>130368</v>
+        <v>161081</v>
       </c>
       <c r="C146" t="s">
         <v>1067</v>
@@ -22774,7 +22774,7 @@
         <v>38111</v>
       </c>
       <c r="B147" t="n">
-        <v>130369</v>
+        <v>161082</v>
       </c>
       <c r="C147" t="s">
         <v>1073</v>
@@ -22845,7 +22845,7 @@
         <v>38111</v>
       </c>
       <c r="B148" t="n">
-        <v>130370</v>
+        <v>161083</v>
       </c>
       <c r="C148" t="s">
         <v>1079</v>
@@ -22987,7 +22987,7 @@
         <v>38111</v>
       </c>
       <c r="B150" t="n">
-        <v>130371</v>
+        <v>161084</v>
       </c>
       <c r="C150" t="s">
         <v>1091</v>
@@ -23058,7 +23058,7 @@
         <v>38111</v>
       </c>
       <c r="B151" t="n">
-        <v>130372</v>
+        <v>161085</v>
       </c>
       <c r="C151" t="s">
         <v>1097</v>
@@ -23129,7 +23129,7 @@
         <v>38111</v>
       </c>
       <c r="B152" t="n">
-        <v>130373</v>
+        <v>161086</v>
       </c>
       <c r="C152" t="s">
         <v>1104</v>
@@ -23196,7 +23196,7 @@
         <v>38111</v>
       </c>
       <c r="B153" t="n">
-        <v>130374</v>
+        <v>161087</v>
       </c>
       <c r="C153" t="s">
         <v>1111</v>
@@ -23257,7 +23257,7 @@
         <v>38111</v>
       </c>
       <c r="B154" t="n">
-        <v>130375</v>
+        <v>161088</v>
       </c>
       <c r="C154" t="s">
         <v>1118</v>
@@ -23328,7 +23328,7 @@
         <v>38111</v>
       </c>
       <c r="B155" t="n">
-        <v>130376</v>
+        <v>161089</v>
       </c>
       <c r="C155" t="s">
         <v>1124</v>
@@ -23470,7 +23470,7 @@
         <v>38111</v>
       </c>
       <c r="B157" t="n">
-        <v>130377</v>
+        <v>161090</v>
       </c>
       <c r="C157" t="s">
         <v>1136</v>
@@ -23541,7 +23541,7 @@
         <v>38111</v>
       </c>
       <c r="B158" t="n">
-        <v>130378</v>
+        <v>161091</v>
       </c>
       <c r="C158" t="s">
         <v>1142</v>
@@ -23612,7 +23612,7 @@
         <v>38111</v>
       </c>
       <c r="B159" t="n">
-        <v>130379</v>
+        <v>161092</v>
       </c>
       <c r="C159" t="s">
         <v>1148</v>
@@ -23679,7 +23679,7 @@
         <v>38111</v>
       </c>
       <c r="B160" t="n">
-        <v>130380</v>
+        <v>161093</v>
       </c>
       <c r="C160" t="s">
         <v>1156</v>
@@ -23815,7 +23815,7 @@
         <v>38111</v>
       </c>
       <c r="B162" t="n">
-        <v>130381</v>
+        <v>161094</v>
       </c>
       <c r="C162" t="s">
         <v>1169</v>
@@ -23947,7 +23947,7 @@
         <v>38111</v>
       </c>
       <c r="B164" t="n">
-        <v>130365</v>
+        <v>130293</v>
       </c>
       <c r="C164" t="s">
         <v>1057</v>
@@ -24089,7 +24089,7 @@
         <v>38111</v>
       </c>
       <c r="B166" t="n">
-        <v>130382</v>
+        <v>161095</v>
       </c>
       <c r="C166" t="s">
         <v>1196</v>
@@ -24160,7 +24160,7 @@
         <v>38111</v>
       </c>
       <c r="B167" t="n">
-        <v>130383</v>
+        <v>130400</v>
       </c>
       <c r="C167" t="s">
         <v>1202</v>
@@ -24231,7 +24231,7 @@
         <v>38111</v>
       </c>
       <c r="B168" t="n">
-        <v>130384</v>
+        <v>161096</v>
       </c>
       <c r="C168" t="s">
         <v>1211</v>
@@ -24298,7 +24298,7 @@
         <v>38111</v>
       </c>
       <c r="B169" t="n">
-        <v>130385</v>
+        <v>161097</v>
       </c>
       <c r="C169" t="s">
         <v>1218</v>
@@ -24365,7 +24365,7 @@
         <v>38111</v>
       </c>
       <c r="B170" t="n">
-        <v>130386</v>
+        <v>161098</v>
       </c>
       <c r="C170" t="s">
         <v>1225</v>
@@ -24436,7 +24436,7 @@
         <v>38111</v>
       </c>
       <c r="B171" t="n">
-        <v>130387</v>
+        <v>161099</v>
       </c>
       <c r="C171" t="s">
         <v>1231</v>
@@ -24503,7 +24503,7 @@
         <v>38111</v>
       </c>
       <c r="B172" t="n">
-        <v>130388</v>
+        <v>161100</v>
       </c>
       <c r="C172" t="s">
         <v>1236</v>
@@ -24574,7 +24574,7 @@
         <v>38111</v>
       </c>
       <c r="B173" t="n">
-        <v>130389</v>
+        <v>161101</v>
       </c>
       <c r="C173" t="s">
         <v>1242</v>
@@ -24710,7 +24710,7 @@
         <v>38111</v>
       </c>
       <c r="B175" t="n">
-        <v>130390</v>
+        <v>161102</v>
       </c>
       <c r="C175" t="s">
         <v>1256</v>
@@ -24781,7 +24781,7 @@
         <v>38111</v>
       </c>
       <c r="B176" t="n">
-        <v>130391</v>
+        <v>161103</v>
       </c>
       <c r="C176" t="s">
         <v>1261</v>
@@ -24838,7 +24838,7 @@
         <v>38111</v>
       </c>
       <c r="B177" t="n">
-        <v>130392</v>
+        <v>161104</v>
       </c>
       <c r="C177" t="s">
         <v>1267</v>
@@ -24909,7 +24909,7 @@
         <v>38111</v>
       </c>
       <c r="B178" t="n">
-        <v>130393</v>
+        <v>161105</v>
       </c>
       <c r="C178" t="s">
         <v>1273</v>
@@ -24980,7 +24980,7 @@
         <v>38111</v>
       </c>
       <c r="B179" t="n">
-        <v>130394</v>
+        <v>161106</v>
       </c>
       <c r="C179" t="s">
         <v>1279</v>
@@ -25041,7 +25041,7 @@
         <v>38111</v>
       </c>
       <c r="B180" t="n">
-        <v>130395</v>
+        <v>161107</v>
       </c>
       <c r="C180" t="s">
         <v>1285</v>
@@ -25246,7 +25246,7 @@
         <v>38111</v>
       </c>
       <c r="B183" t="n">
-        <v>130396</v>
+        <v>161108</v>
       </c>
       <c r="C183" t="s">
         <v>1311</v>
@@ -25321,7 +25321,7 @@
         <v>38111</v>
       </c>
       <c r="B184" t="n">
-        <v>130397</v>
+        <v>161109</v>
       </c>
       <c r="C184" t="s">
         <v>1319</v>
@@ -25392,7 +25392,7 @@
         <v>38111</v>
       </c>
       <c r="B185" t="n">
-        <v>130398</v>
+        <v>161110</v>
       </c>
       <c r="C185" t="s">
         <v>1326</v>
@@ -25528,7 +25528,7 @@
         <v>38111</v>
       </c>
       <c r="B187" t="n">
-        <v>130399</v>
+        <v>161111</v>
       </c>
       <c r="C187" t="s">
         <v>1341</v>
@@ -25660,7 +25660,7 @@
         <v>38111</v>
       </c>
       <c r="B189" t="n">
-        <v>130400</v>
+        <v>161112</v>
       </c>
       <c r="C189" t="s">
         <v>1354</v>
@@ -25863,7 +25863,7 @@
         <v>38111</v>
       </c>
       <c r="B192" t="n">
-        <v>130401</v>
+        <v>161113</v>
       </c>
       <c r="C192" t="s">
         <v>1373</v>
@@ -25930,7 +25930,7 @@
         <v>38111</v>
       </c>
       <c r="B193" t="n">
-        <v>130402</v>
+        <v>161114</v>
       </c>
       <c r="C193" t="s">
         <v>1379</v>
@@ -26062,7 +26062,7 @@
         <v>38111</v>
       </c>
       <c r="B195" t="n">
-        <v>130403</v>
+        <v>130303</v>
       </c>
       <c r="C195" t="s">
         <v>1393</v>
@@ -26127,7 +26127,7 @@
         <v>38111</v>
       </c>
       <c r="B196" t="n">
-        <v>130402</v>
+        <v>130303</v>
       </c>
       <c r="C196" t="s">
         <v>1393</v>
@@ -26277,7 +26277,7 @@
         <v>38111</v>
       </c>
       <c r="B198" t="n">
-        <v>130404</v>
+        <v>161115</v>
       </c>
       <c r="C198" t="s">
         <v>1415</v>
@@ -26683,7 +26683,7 @@
         <v>38111</v>
       </c>
       <c r="B204" t="n">
-        <v>130405</v>
+        <v>161116</v>
       </c>
       <c r="C204" t="s">
         <v>1451</v>
@@ -26752,7 +26752,7 @@
         <v>38111</v>
       </c>
       <c r="B205" t="n">
-        <v>130406</v>
+        <v>161117</v>
       </c>
       <c r="C205" t="s">
         <v>1456</v>
@@ -26890,7 +26890,7 @@
         <v>38111</v>
       </c>
       <c r="B207" t="n">
-        <v>130407</v>
+        <v>161118</v>
       </c>
       <c r="C207" t="s">
         <v>1467</v>
@@ -27012,7 +27012,7 @@
         <v>38111</v>
       </c>
       <c r="B209" t="n">
-        <v>130408</v>
+        <v>161119</v>
       </c>
       <c r="C209" t="s">
         <v>1480</v>
@@ -27083,7 +27083,7 @@
         <v>38111</v>
       </c>
       <c r="B210" t="n">
-        <v>130409</v>
+        <v>161120</v>
       </c>
       <c r="C210" t="s">
         <v>1490</v>
@@ -27148,7 +27148,7 @@
         <v>38111</v>
       </c>
       <c r="B211" t="n">
-        <v>130410</v>
+        <v>161121</v>
       </c>
       <c r="C211" t="s">
         <v>1496</v>
@@ -27209,7 +27209,7 @@
         <v>38111</v>
       </c>
       <c r="B212" t="n">
-        <v>130411</v>
+        <v>161122</v>
       </c>
       <c r="C212" t="s">
         <v>1502</v>
@@ -27280,7 +27280,7 @@
         <v>38111</v>
       </c>
       <c r="B213" t="n">
-        <v>130412</v>
+        <v>161123</v>
       </c>
       <c r="C213" t="s">
         <v>1511</v>
@@ -27422,7 +27422,7 @@
         <v>38111</v>
       </c>
       <c r="B215" t="n">
-        <v>130413</v>
+        <v>161124</v>
       </c>
       <c r="C215" t="s">
         <v>1523</v>
@@ -27629,7 +27629,7 @@
         <v>38111</v>
       </c>
       <c r="B218" t="n">
-        <v>130414</v>
+        <v>161125</v>
       </c>
       <c r="C218" t="s">
         <v>1541</v>
@@ -27765,7 +27765,7 @@
         <v>38111</v>
       </c>
       <c r="B220" t="n">
-        <v>130415</v>
+        <v>161126</v>
       </c>
       <c r="C220" t="s">
         <v>1553</v>
@@ -27901,7 +27901,7 @@
         <v>38111</v>
       </c>
       <c r="B222" t="n">
-        <v>130416</v>
+        <v>161127</v>
       </c>
       <c r="C222" t="s">
         <v>1570</v>
@@ -27966,7 +27966,7 @@
         <v>38111</v>
       </c>
       <c r="B223" t="n">
-        <v>130417</v>
+        <v>161128</v>
       </c>
       <c r="C223" t="s">
         <v>1577</v>
@@ -28108,7 +28108,7 @@
         <v>38111</v>
       </c>
       <c r="B225" t="n">
-        <v>130418</v>
+        <v>161129</v>
       </c>
       <c r="C225" t="s">
         <v>1589</v>
@@ -28169,7 +28169,7 @@
         <v>38111</v>
       </c>
       <c r="B226" t="n">
-        <v>130419</v>
+        <v>161130</v>
       </c>
       <c r="C226" t="s">
         <v>1594</v>
@@ -28244,7 +28244,7 @@
         <v>38111</v>
       </c>
       <c r="B227" t="n">
-        <v>130420</v>
+        <v>161131</v>
       </c>
       <c r="C227" t="s">
         <v>1603</v>
@@ -28307,7 +28307,7 @@
         <v>38111</v>
       </c>
       <c r="B228" t="n">
-        <v>130421</v>
+        <v>161132</v>
       </c>
       <c r="C228" t="s">
         <v>1609</v>
@@ -28372,7 +28372,7 @@
         <v>38111</v>
       </c>
       <c r="B229" t="n">
-        <v>130422</v>
+        <v>161133</v>
       </c>
       <c r="C229" t="s">
         <v>1616</v>
@@ -28443,7 +28443,7 @@
         <v>38111</v>
       </c>
       <c r="B230" t="n">
-        <v>130423</v>
+        <v>161134</v>
       </c>
       <c r="C230" t="s">
         <v>1625</v>
@@ -28575,7 +28575,7 @@
         <v>38111</v>
       </c>
       <c r="B232" t="n">
-        <v>130424</v>
+        <v>161135</v>
       </c>
       <c r="C232" t="s">
         <v>1641</v>
@@ -28640,7 +28640,7 @@
         <v>38111</v>
       </c>
       <c r="B233" t="n">
-        <v>130425</v>
+        <v>161136</v>
       </c>
       <c r="C233" t="s">
         <v>1647</v>
@@ -28707,7 +28707,7 @@
         <v>38111</v>
       </c>
       <c r="B234" t="n">
-        <v>130426</v>
+        <v>161137</v>
       </c>
       <c r="C234" t="s">
         <v>1652</v>
@@ -28839,7 +28839,7 @@
         <v>38111</v>
       </c>
       <c r="B236" t="n">
-        <v>130427</v>
+        <v>161138</v>
       </c>
       <c r="C236" t="s">
         <v>1665</v>
@@ -28910,7 +28910,7 @@
         <v>38111</v>
       </c>
       <c r="B237" t="n">
-        <v>130428</v>
+        <v>161139</v>
       </c>
       <c r="C237" t="s">
         <v>1670</v>
@@ -28981,7 +28981,7 @@
         <v>38111</v>
       </c>
       <c r="B238" t="n">
-        <v>130429</v>
+        <v>161140</v>
       </c>
       <c r="C238" t="s">
         <v>1675</v>
@@ -29042,7 +29042,7 @@
         <v>38111</v>
       </c>
       <c r="B239" t="n">
-        <v>130430</v>
+        <v>161141</v>
       </c>
       <c r="C239" t="s">
         <v>1682</v>
@@ -29109,7 +29109,7 @@
         <v>38111</v>
       </c>
       <c r="B240" t="n">
-        <v>130431</v>
+        <v>161142</v>
       </c>
       <c r="C240" t="s">
         <v>1688</v>
@@ -29237,7 +29237,7 @@
         <v>38111</v>
       </c>
       <c r="B242" t="n">
-        <v>130432</v>
+        <v>161143</v>
       </c>
       <c r="C242" t="s">
         <v>1700</v>
@@ -29513,7 +29513,7 @@
         <v>38111</v>
       </c>
       <c r="B246" t="n">
-        <v>130433</v>
+        <v>161144</v>
       </c>
       <c r="C246" t="s">
         <v>1725</v>
@@ -29580,7 +29580,7 @@
         <v>38111</v>
       </c>
       <c r="B247" t="n">
-        <v>130434</v>
+        <v>161145</v>
       </c>
       <c r="C247" t="s">
         <v>1732</v>
@@ -29726,7 +29726,7 @@
         <v>38111</v>
       </c>
       <c r="B249" t="n">
-        <v>130435</v>
+        <v>161146</v>
       </c>
       <c r="C249" t="s">
         <v>1747</v>
@@ -29787,7 +29787,7 @@
         <v>38111</v>
       </c>
       <c r="B250" t="n">
-        <v>130436</v>
+        <v>161147</v>
       </c>
       <c r="C250" t="s">
         <v>1755</v>
@@ -29858,7 +29858,7 @@
         <v>38111</v>
       </c>
       <c r="B251" t="n">
-        <v>130437</v>
+        <v>161148</v>
       </c>
       <c r="C251" t="s">
         <v>1760</v>
@@ -30071,7 +30071,7 @@
         <v>38111</v>
       </c>
       <c r="B254" t="n">
-        <v>130438</v>
+        <v>161149</v>
       </c>
       <c r="C254" t="s">
         <v>1780</v>
@@ -30146,7 +30146,7 @@
         <v>38111</v>
       </c>
       <c r="B255" t="n">
-        <v>130439</v>
+        <v>161150</v>
       </c>
       <c r="C255" t="s">
         <v>1787</v>
@@ -30278,7 +30278,7 @@
         <v>38111</v>
       </c>
       <c r="B257" t="n">
-        <v>130440</v>
+        <v>161151</v>
       </c>
       <c r="C257" t="s">
         <v>1800</v>
@@ -30345,7 +30345,7 @@
         <v>38111</v>
       </c>
       <c r="B258" t="n">
-        <v>130441</v>
+        <v>161152</v>
       </c>
       <c r="C258" t="s">
         <v>1806</v>
@@ -30538,7 +30538,7 @@
         <v>38111</v>
       </c>
       <c r="B261" t="n">
-        <v>130442</v>
+        <v>161153</v>
       </c>
       <c r="C261" t="s">
         <v>1826</v>
@@ -30599,7 +30599,7 @@
         <v>38111</v>
       </c>
       <c r="B262" t="n">
-        <v>130443</v>
+        <v>161154</v>
       </c>
       <c r="C262" t="s">
         <v>1832</v>
@@ -30660,7 +30660,7 @@
         <v>38111</v>
       </c>
       <c r="B263" t="n">
-        <v>130444</v>
+        <v>161155</v>
       </c>
       <c r="C263" t="s">
         <v>1838</v>
@@ -30725,7 +30725,7 @@
         <v>38111</v>
       </c>
       <c r="B264" t="n">
-        <v>130445</v>
+        <v>161156</v>
       </c>
       <c r="C264" t="s">
         <v>1846</v>
@@ -30861,7 +30861,7 @@
         <v>38111</v>
       </c>
       <c r="B266" t="n">
-        <v>130446</v>
+        <v>161157</v>
       </c>
       <c r="C266" t="s">
         <v>1858</v>
@@ -30926,7 +30926,7 @@
         <v>38111</v>
       </c>
       <c r="B267" t="n">
-        <v>130447</v>
+        <v>161158</v>
       </c>
       <c r="C267" t="s">
         <v>1867</v>
@@ -30997,7 +30997,7 @@
         <v>38111</v>
       </c>
       <c r="B268" t="n">
-        <v>130448</v>
+        <v>161159</v>
       </c>
       <c r="C268" t="s">
         <v>1875</v>
@@ -31068,7 +31068,7 @@
         <v>38111</v>
       </c>
       <c r="B269" t="n">
-        <v>130449</v>
+        <v>161160</v>
       </c>
       <c r="C269" t="s">
         <v>1881</v>
@@ -31135,7 +31135,7 @@
         <v>38111</v>
       </c>
       <c r="B270" t="n">
-        <v>130450</v>
+        <v>161161</v>
       </c>
       <c r="C270" t="s">
         <v>1889</v>
@@ -31273,7 +31273,7 @@
         <v>38111</v>
       </c>
       <c r="B272" t="n">
-        <v>130451</v>
+        <v>161162</v>
       </c>
       <c r="C272" t="s">
         <v>1901</v>
@@ -31330,7 +31330,7 @@
         <v>38111</v>
       </c>
       <c r="B273" t="n">
-        <v>130452</v>
+        <v>161163</v>
       </c>
       <c r="C273" t="s">
         <v>1907</v>
@@ -31452,7 +31452,7 @@
         <v>38111</v>
       </c>
       <c r="B275" t="n">
-        <v>130453</v>
+        <v>161164</v>
       </c>
       <c r="C275" t="s">
         <v>1918</v>
@@ -31523,7 +31523,7 @@
         <v>38111</v>
       </c>
       <c r="B276" t="n">
-        <v>130454</v>
+        <v>161165</v>
       </c>
       <c r="C276" t="s">
         <v>1924</v>
@@ -31736,7 +31736,7 @@
         <v>38111</v>
       </c>
       <c r="B279" t="n">
-        <v>130455</v>
+        <v>161166</v>
       </c>
       <c r="C279" t="s">
         <v>1942</v>
@@ -31801,7 +31801,7 @@
         <v>38111</v>
       </c>
       <c r="B280" t="n">
-        <v>130456</v>
+        <v>161167</v>
       </c>
       <c r="C280" t="s">
         <v>1950</v>
@@ -31866,7 +31866,7 @@
         <v>38111</v>
       </c>
       <c r="B281" t="n">
-        <v>130457</v>
+        <v>161168</v>
       </c>
       <c r="C281" t="s">
         <v>1956</v>
@@ -31998,7 +31998,7 @@
         <v>38111</v>
       </c>
       <c r="B283" t="n">
-        <v>130458</v>
+        <v>161169</v>
       </c>
       <c r="C283" t="s">
         <v>1968</v>
@@ -32128,7 +32128,7 @@
         <v>38111</v>
       </c>
       <c r="B285" t="n">
-        <v>130459</v>
+        <v>161170</v>
       </c>
       <c r="C285" t="s">
         <v>1981</v>
@@ -32193,7 +32193,7 @@
         <v>38111</v>
       </c>
       <c r="B286" t="n">
-        <v>130460</v>
+        <v>161171</v>
       </c>
       <c r="C286" t="s">
         <v>1988</v>
@@ -32321,7 +32321,7 @@
         <v>38111</v>
       </c>
       <c r="B288" t="n">
-        <v>130461</v>
+        <v>161172</v>
       </c>
       <c r="C288" t="s">
         <v>2004</v>
@@ -32386,7 +32386,7 @@
         <v>38111</v>
       </c>
       <c r="B289" t="n">
-        <v>130462</v>
+        <v>161173</v>
       </c>
       <c r="C289" t="s">
         <v>2013</v>
@@ -32447,7 +32447,7 @@
         <v>38111</v>
       </c>
       <c r="B290" t="n">
-        <v>130463</v>
+        <v>161174</v>
       </c>
       <c r="C290" t="s">
         <v>2018</v>
@@ -32583,7 +32583,7 @@
         <v>38111</v>
       </c>
       <c r="B292" t="n">
-        <v>130464</v>
+        <v>161175</v>
       </c>
       <c r="C292" t="s">
         <v>2034</v>
@@ -32644,7 +32644,7 @@
         <v>38111</v>
       </c>
       <c r="B293" t="n">
-        <v>130465</v>
+        <v>161176</v>
       </c>
       <c r="C293" t="s">
         <v>2040</v>
@@ -32705,7 +32705,7 @@
         <v>38111</v>
       </c>
       <c r="B294" t="n">
-        <v>130466</v>
+        <v>161177</v>
       </c>
       <c r="C294" t="s">
         <v>2047</v>
@@ -32766,7 +32766,7 @@
         <v>38111</v>
       </c>
       <c r="B295" t="n">
-        <v>130467</v>
+        <v>161178</v>
       </c>
       <c r="C295" t="s">
         <v>2053</v>
@@ -32837,7 +32837,7 @@
         <v>38111</v>
       </c>
       <c r="B296" t="n">
-        <v>130468</v>
+        <v>161179</v>
       </c>
       <c r="C296" t="s">
         <v>2061</v>
@@ -32906,7 +32906,7 @@
         <v>38111</v>
       </c>
       <c r="B297" t="n">
-        <v>130469</v>
+        <v>161180</v>
       </c>
       <c r="C297" t="s">
         <v>2071</v>
@@ -33042,7 +33042,7 @@
         <v>38111</v>
       </c>
       <c r="B299" t="n">
-        <v>130470</v>
+        <v>161181</v>
       </c>
       <c r="C299" t="s">
         <v>2086</v>
@@ -33178,7 +33178,7 @@
         <v>38111</v>
       </c>
       <c r="B301" t="n">
-        <v>130471</v>
+        <v>161182</v>
       </c>
       <c r="C301" t="s">
         <v>2099</v>
@@ -33245,7 +33245,7 @@
         <v>38111</v>
       </c>
       <c r="B302" t="n">
-        <v>130472</v>
+        <v>161183</v>
       </c>
       <c r="C302" t="s">
         <v>2104</v>
@@ -33373,7 +33373,7 @@
         <v>38111</v>
       </c>
       <c r="B304" t="n">
-        <v>130473</v>
+        <v>161184</v>
       </c>
       <c r="C304" t="s">
         <v>2117</v>
@@ -33444,7 +33444,7 @@
         <v>38111</v>
       </c>
       <c r="B305" t="n">
-        <v>130474</v>
+        <v>161185</v>
       </c>
       <c r="C305" t="s">
         <v>2123</v>
@@ -33519,7 +33519,7 @@
         <v>38111</v>
       </c>
       <c r="B306" t="n">
-        <v>130475</v>
+        <v>161186</v>
       </c>
       <c r="C306" t="s">
         <v>2132</v>
@@ -33590,7 +33590,7 @@
         <v>38111</v>
       </c>
       <c r="B307" t="n">
-        <v>130476</v>
+        <v>161187</v>
       </c>
       <c r="C307" t="s">
         <v>2138</v>
@@ -33665,7 +33665,7 @@
         <v>38111</v>
       </c>
       <c r="B308" t="n">
-        <v>130477</v>
+        <v>161188</v>
       </c>
       <c r="C308" t="s">
         <v>2147</v>
@@ -33736,7 +33736,7 @@
         <v>38111</v>
       </c>
       <c r="B309" t="n">
-        <v>130478</v>
+        <v>161189</v>
       </c>
       <c r="C309" t="s">
         <v>2157</v>
@@ -33801,7 +33801,7 @@
         <v>38111</v>
       </c>
       <c r="B310" t="n">
-        <v>130479</v>
+        <v>161190</v>
       </c>
       <c r="C310" t="s">
         <v>2164</v>
@@ -33866,7 +33866,7 @@
         <v>38111</v>
       </c>
       <c r="B311" t="n">
-        <v>130480</v>
+        <v>161191</v>
       </c>
       <c r="C311" t="s">
         <v>2171</v>
@@ -33998,7 +33998,7 @@
         <v>38111</v>
       </c>
       <c r="B313" t="n">
-        <v>130481</v>
+        <v>161192</v>
       </c>
       <c r="C313" t="s">
         <v>2184</v>
@@ -34063,7 +34063,7 @@
         <v>38111</v>
       </c>
       <c r="B314" t="n">
-        <v>130482</v>
+        <v>161193</v>
       </c>
       <c r="C314" t="s">
         <v>2189</v>
@@ -34128,7 +34128,7 @@
         <v>38111</v>
       </c>
       <c r="B315" t="n">
-        <v>130483</v>
+        <v>161194</v>
       </c>
       <c r="C315" t="s">
         <v>2195</v>
@@ -34199,7 +34199,7 @@
         <v>38111</v>
       </c>
       <c r="B316" t="n">
-        <v>130484</v>
+        <v>161195</v>
       </c>
       <c r="C316" t="s">
         <v>2200</v>
@@ -34266,7 +34266,7 @@
         <v>38111</v>
       </c>
       <c r="B317" t="n">
-        <v>130485</v>
+        <v>161196</v>
       </c>
       <c r="C317" t="s">
         <v>2207</v>
@@ -34398,7 +34398,7 @@
         <v>38111</v>
       </c>
       <c r="B319" t="n">
-        <v>130486</v>
+        <v>161197</v>
       </c>
       <c r="C319" t="s">
         <v>2221</v>
@@ -34611,7 +34611,7 @@
         <v>38111</v>
       </c>
       <c r="B322" t="n">
-        <v>130487</v>
+        <v>161198</v>
       </c>
       <c r="C322" t="s">
         <v>2242</v>
@@ -34672,7 +34672,7 @@
         <v>38111</v>
       </c>
       <c r="B323" t="n">
-        <v>130488</v>
+        <v>161199</v>
       </c>
       <c r="C323" t="s">
         <v>2248</v>
@@ -34798,7 +34798,7 @@
         <v>38111</v>
       </c>
       <c r="B325" t="n">
-        <v>130489</v>
+        <v>161200</v>
       </c>
       <c r="C325" t="s">
         <v>2261</v>
@@ -34863,7 +34863,7 @@
         <v>38111</v>
       </c>
       <c r="B326" t="n">
-        <v>130490</v>
+        <v>161201</v>
       </c>
       <c r="C326" t="s">
         <v>2268</v>
@@ -34930,7 +34930,7 @@
         <v>38111</v>
       </c>
       <c r="B327" t="n">
-        <v>130491</v>
+        <v>161202</v>
       </c>
       <c r="C327" t="s">
         <v>2275</v>
@@ -35072,7 +35072,7 @@
         <v>38111</v>
       </c>
       <c r="B329" t="n">
-        <v>130492</v>
+        <v>161203</v>
       </c>
       <c r="C329" t="s">
         <v>2286</v>
@@ -35204,7 +35204,7 @@
         <v>38111</v>
       </c>
       <c r="B331" t="n">
-        <v>130493</v>
+        <v>161204</v>
       </c>
       <c r="C331" t="s">
         <v>2298</v>
@@ -35336,7 +35336,7 @@
         <v>38111</v>
       </c>
       <c r="B333" t="n">
-        <v>130494</v>
+        <v>161205</v>
       </c>
       <c r="C333" t="s">
         <v>2311</v>
@@ -35539,7 +35539,7 @@
         <v>38111</v>
       </c>
       <c r="B336" t="n">
-        <v>130495</v>
+        <v>161206</v>
       </c>
       <c r="C336" t="s">
         <v>2329</v>
@@ -35677,7 +35677,7 @@
         <v>38111</v>
       </c>
       <c r="B338" t="n">
-        <v>130496</v>
+        <v>161207</v>
       </c>
       <c r="C338" t="s">
         <v>2343</v>
@@ -35742,7 +35742,7 @@
         <v>38111</v>
       </c>
       <c r="B339" t="n">
-        <v>130497</v>
+        <v>161208</v>
       </c>
       <c r="C339" t="s">
         <v>2349</v>
@@ -35880,7 +35880,7 @@
         <v>38111</v>
       </c>
       <c r="B341" t="n">
-        <v>130498</v>
+        <v>161209</v>
       </c>
       <c r="C341" t="s">
         <v>2361</v>
@@ -35947,7 +35947,7 @@
         <v>38111</v>
       </c>
       <c r="B342" t="n">
-        <v>130499</v>
+        <v>161210</v>
       </c>
       <c r="C342" t="s">
         <v>2367</v>
@@ -36014,7 +36014,7 @@
         <v>38111</v>
       </c>
       <c r="B343" t="n">
-        <v>130500</v>
+        <v>161211</v>
       </c>
       <c r="C343" t="s">
         <v>2374</v>
@@ -36199,7 +36199,7 @@
         <v>38111</v>
       </c>
       <c r="B346" t="n">
-        <v>130501</v>
+        <v>161212</v>
       </c>
       <c r="C346" t="s">
         <v>2392</v>
@@ -36264,7 +36264,7 @@
         <v>38111</v>
       </c>
       <c r="B347" t="n">
-        <v>130502</v>
+        <v>161213</v>
       </c>
       <c r="C347" t="s">
         <v>2398</v>
@@ -36587,7 +36587,7 @@
         <v>38111</v>
       </c>
       <c r="B352" t="n">
-        <v>130503</v>
+        <v>161214</v>
       </c>
       <c r="C352" t="s">
         <v>2428</v>
@@ -36721,7 +36721,7 @@
         <v>38111</v>
       </c>
       <c r="B354" t="n">
-        <v>130504</v>
+        <v>161215</v>
       </c>
       <c r="C354" t="s">
         <v>2440</v>
@@ -36788,7 +36788,7 @@
         <v>38111</v>
       </c>
       <c r="B355" t="n">
-        <v>130505</v>
+        <v>161216</v>
       </c>
       <c r="C355" t="s">
         <v>2447</v>
@@ -36922,7 +36922,7 @@
         <v>38111</v>
       </c>
       <c r="B357" t="n">
-        <v>130506</v>
+        <v>161217</v>
       </c>
       <c r="C357" t="s">
         <v>2461</v>
@@ -36989,7 +36989,7 @@
         <v>38111</v>
       </c>
       <c r="B358" t="n">
-        <v>130507</v>
+        <v>161218</v>
       </c>
       <c r="C358" t="s">
         <v>2467</v>
@@ -37121,7 +37121,7 @@
         <v>38111</v>
       </c>
       <c r="B360" t="n">
-        <v>130508</v>
+        <v>161219</v>
       </c>
       <c r="C360" t="s">
         <v>2480</v>
@@ -37182,7 +37182,7 @@
         <v>38111</v>
       </c>
       <c r="B361" t="n">
-        <v>130509</v>
+        <v>161220</v>
       </c>
       <c r="C361" t="s">
         <v>2486</v>
@@ -37249,7 +37249,7 @@
         <v>38111</v>
       </c>
       <c r="B362" t="n">
-        <v>130510</v>
+        <v>161221</v>
       </c>
       <c r="C362" t="s">
         <v>2492</v>
@@ -37375,7 +37375,7 @@
         <v>38111</v>
       </c>
       <c r="B364" t="n">
-        <v>130511</v>
+        <v>161222</v>
       </c>
       <c r="C364" t="s">
         <v>2506</v>
@@ -37432,7 +37432,7 @@
         <v>38111</v>
       </c>
       <c r="B365" t="n">
-        <v>130512</v>
+        <v>161223</v>
       </c>
       <c r="C365" t="s">
         <v>2512</v>
@@ -37497,7 +37497,7 @@
         <v>38111</v>
       </c>
       <c r="B366" t="n">
-        <v>130513</v>
+        <v>161224</v>
       </c>
       <c r="C366" t="s">
         <v>2519</v>
@@ -37564,7 +37564,7 @@
         <v>38111</v>
       </c>
       <c r="B367" t="n">
-        <v>130514</v>
+        <v>161225</v>
       </c>
       <c r="C367" t="s">
         <v>2524</v>
@@ -37625,7 +37625,7 @@
         <v>38111</v>
       </c>
       <c r="B368" t="n">
-        <v>130515</v>
+        <v>161226</v>
       </c>
       <c r="C368" t="s">
         <v>2530</v>
@@ -37692,7 +37692,7 @@
         <v>38111</v>
       </c>
       <c r="B369" t="n">
-        <v>130516</v>
+        <v>161227</v>
       </c>
       <c r="C369" t="s">
         <v>2536</v>
@@ -37757,7 +37757,7 @@
         <v>38111</v>
       </c>
       <c r="B370" t="n">
-        <v>130517</v>
+        <v>161228</v>
       </c>
       <c r="C370" t="s">
         <v>2543</v>
@@ -37879,7 +37879,7 @@
         <v>38111</v>
       </c>
       <c r="B372" t="n">
-        <v>130518</v>
+        <v>161229</v>
       </c>
       <c r="C372" t="s">
         <v>2556</v>
@@ -37946,7 +37946,7 @@
         <v>38111</v>
       </c>
       <c r="B373" t="n">
-        <v>130519</v>
+        <v>161230</v>
       </c>
       <c r="C373" t="s">
         <v>2563</v>
@@ -38013,7 +38013,7 @@
         <v>38111</v>
       </c>
       <c r="B374" t="n">
-        <v>130520</v>
+        <v>161231</v>
       </c>
       <c r="C374" t="s">
         <v>2570</v>
@@ -38080,7 +38080,7 @@
         <v>38111</v>
       </c>
       <c r="B375" t="n">
-        <v>130337</v>
+        <v>130365</v>
       </c>
       <c r="C375" t="s">
         <v>773</v>
@@ -38210,7 +38210,7 @@
         <v>38111</v>
       </c>
       <c r="B377" t="n">
-        <v>130521</v>
+        <v>161232</v>
       </c>
       <c r="C377" t="s">
         <v>2592</v>
@@ -38271,7 +38271,7 @@
         <v>38111</v>
       </c>
       <c r="B378" t="n">
-        <v>130522</v>
+        <v>161233</v>
       </c>
       <c r="C378" t="s">
         <v>2598</v>
@@ -38328,7 +38328,7 @@
         <v>38111</v>
       </c>
       <c r="B379" t="n">
-        <v>130523</v>
+        <v>161234</v>
       </c>
       <c r="C379" t="s">
         <v>2604</v>
@@ -38393,7 +38393,7 @@
         <v>38111</v>
       </c>
       <c r="B380" t="n">
-        <v>130524</v>
+        <v>161235</v>
       </c>
       <c r="C380" t="s">
         <v>2611</v>
@@ -38460,7 +38460,7 @@
         <v>38111</v>
       </c>
       <c r="B381" t="n">
-        <v>130525</v>
+        <v>161236</v>
       </c>
       <c r="C381" t="s">
         <v>2617</v>
@@ -38527,7 +38527,7 @@
         <v>38111</v>
       </c>
       <c r="B382" t="n">
-        <v>130526</v>
+        <v>161237</v>
       </c>
       <c r="C382" t="s">
         <v>2624</v>
@@ -38592,7 +38592,7 @@
         <v>38111</v>
       </c>
       <c r="B383" t="n">
-        <v>130527</v>
+        <v>161238</v>
       </c>
       <c r="C383" t="s">
         <v>2630</v>
@@ -38659,7 +38659,7 @@
         <v>38111</v>
       </c>
       <c r="B384" t="n">
-        <v>130528</v>
+        <v>161239</v>
       </c>
       <c r="C384" t="s">
         <v>2637</v>
@@ -38856,7 +38856,7 @@
         <v>38111</v>
       </c>
       <c r="B387" t="n">
-        <v>130529</v>
+        <v>161240</v>
       </c>
       <c r="C387" t="s">
         <v>2662</v>
@@ -38923,7 +38923,7 @@
         <v>38111</v>
       </c>
       <c r="B388" t="n">
-        <v>130530</v>
+        <v>161241</v>
       </c>
       <c r="C388" t="s">
         <v>2668</v>
@@ -39057,7 +39057,7 @@
         <v>38111</v>
       </c>
       <c r="B390" t="n">
-        <v>130531</v>
+        <v>161242</v>
       </c>
       <c r="C390" t="s">
         <v>2686</v>
@@ -39207,7 +39207,7 @@
         <v>38111</v>
       </c>
       <c r="B392" t="n">
-        <v>130532</v>
+        <v>161243</v>
       </c>
       <c r="C392" t="s">
         <v>2704</v>
@@ -39282,7 +39282,7 @@
         <v>38111</v>
       </c>
       <c r="B393" t="n">
-        <v>130533</v>
+        <v>161244</v>
       </c>
       <c r="C393" t="s">
         <v>2712</v>
@@ -39353,7 +39353,7 @@
         <v>38111</v>
       </c>
       <c r="B394" t="n">
-        <v>130534</v>
+        <v>161245</v>
       </c>
       <c r="C394" t="s">
         <v>2718</v>
@@ -39414,7 +39414,7 @@
         <v>38111</v>
       </c>
       <c r="B395" t="n">
-        <v>130535</v>
+        <v>161246</v>
       </c>
       <c r="C395" t="s">
         <v>2724</v>
@@ -39560,7 +39560,7 @@
         <v>38111</v>
       </c>
       <c r="B397" t="n">
-        <v>130536</v>
+        <v>161247</v>
       </c>
       <c r="C397" t="s">
         <v>2740</v>
@@ -39617,7 +39617,7 @@
         <v>38111</v>
       </c>
       <c r="B398" t="n">
-        <v>130537</v>
+        <v>161248</v>
       </c>
       <c r="C398" t="s">
         <v>2746</v>
@@ -39688,7 +39688,7 @@
         <v>38111</v>
       </c>
       <c r="B399" t="n">
-        <v>130538</v>
+        <v>161249</v>
       </c>
       <c r="C399" t="s">
         <v>2752</v>
@@ -39824,7 +39824,7 @@
         <v>38111</v>
       </c>
       <c r="B401" t="n">
-        <v>130539</v>
+        <v>161250</v>
       </c>
       <c r="C401" t="s">
         <v>2765</v>
@@ -39895,7 +39895,7 @@
         <v>38111</v>
       </c>
       <c r="B402" t="n">
-        <v>130540</v>
+        <v>161251</v>
       </c>
       <c r="C402" t="s">
         <v>2772</v>
@@ -39966,7 +39966,7 @@
         <v>38111</v>
       </c>
       <c r="B403" t="n">
-        <v>130541</v>
+        <v>161252</v>
       </c>
       <c r="C403" t="s">
         <v>2779</v>
@@ -40031,7 +40031,7 @@
         <v>38111</v>
       </c>
       <c r="B404" t="n">
-        <v>130542</v>
+        <v>161253</v>
       </c>
       <c r="C404" t="s">
         <v>2789</v>
@@ -40102,7 +40102,7 @@
         <v>38111</v>
       </c>
       <c r="B405" t="n">
-        <v>130543</v>
+        <v>161254</v>
       </c>
       <c r="C405" t="s">
         <v>2797</v>
@@ -40173,7 +40173,7 @@
         <v>38111</v>
       </c>
       <c r="B406" t="n">
-        <v>130544</v>
+        <v>161255</v>
       </c>
       <c r="C406" t="s">
         <v>2804</v>
@@ -40244,7 +40244,7 @@
         <v>38111</v>
       </c>
       <c r="B407" t="n">
-        <v>130545</v>
+        <v>161256</v>
       </c>
       <c r="C407" t="s">
         <v>2811</v>
@@ -40305,7 +40305,7 @@
         <v>38111</v>
       </c>
       <c r="B408" t="n">
-        <v>130546</v>
+        <v>161257</v>
       </c>
       <c r="C408" t="s">
         <v>2818</v>
@@ -40366,7 +40366,7 @@
         <v>38111</v>
       </c>
       <c r="B409" t="n">
-        <v>130547</v>
+        <v>161258</v>
       </c>
       <c r="C409" t="s">
         <v>2824</v>
@@ -40437,7 +40437,7 @@
         <v>38111</v>
       </c>
       <c r="B410" t="n">
-        <v>130548</v>
+        <v>161259</v>
       </c>
       <c r="C410" t="s">
         <v>2832</v>
@@ -40498,7 +40498,7 @@
         <v>38111</v>
       </c>
       <c r="B411" t="n">
-        <v>130549</v>
+        <v>161260</v>
       </c>
       <c r="C411" t="s">
         <v>2840</v>
@@ -40559,7 +40559,7 @@
         <v>38111</v>
       </c>
       <c r="B412" t="n">
-        <v>130550</v>
+        <v>161261</v>
       </c>
       <c r="C412" t="s">
         <v>2847</v>
@@ -40620,7 +40620,7 @@
         <v>38111</v>
       </c>
       <c r="B413" t="n">
-        <v>130551</v>
+        <v>161262</v>
       </c>
       <c r="C413" t="s">
         <v>2854</v>
@@ -40752,7 +40752,7 @@
         <v>38111</v>
       </c>
       <c r="B415" t="n">
-        <v>130552</v>
+        <v>161263</v>
       </c>
       <c r="C415" t="s">
         <v>2868</v>
@@ -40823,7 +40823,7 @@
         <v>38111</v>
       </c>
       <c r="B416" t="n">
-        <v>130553</v>
+        <v>161264</v>
       </c>
       <c r="C416" t="s">
         <v>2876</v>
@@ -41103,7 +41103,7 @@
         <v>38111</v>
       </c>
       <c r="B420" t="n">
-        <v>130554</v>
+        <v>161265</v>
       </c>
       <c r="C420" t="s">
         <v>2900</v>
@@ -41170,7 +41170,7 @@
         <v>38111</v>
       </c>
       <c r="B421" t="n">
-        <v>130555</v>
+        <v>161266</v>
       </c>
       <c r="C421" t="s">
         <v>2907</v>
@@ -41239,7 +41239,7 @@
         <v>38111</v>
       </c>
       <c r="B422" t="n">
-        <v>130556</v>
+        <v>161267</v>
       </c>
       <c r="C422" t="s">
         <v>2913</v>
@@ -41377,7 +41377,7 @@
         <v>38111</v>
       </c>
       <c r="B424" t="n">
-        <v>130557</v>
+        <v>161268</v>
       </c>
       <c r="C424" t="s">
         <v>2926</v>
@@ -41452,7 +41452,7 @@
         <v>38111</v>
       </c>
       <c r="B425" t="n">
-        <v>130558</v>
+        <v>161269</v>
       </c>
       <c r="C425" t="s">
         <v>2936</v>
@@ -41519,7 +41519,7 @@
         <v>38111</v>
       </c>
       <c r="B426" t="n">
-        <v>130559</v>
+        <v>161270</v>
       </c>
       <c r="C426" t="s">
         <v>2942</v>
@@ -41590,7 +41590,7 @@
         <v>38111</v>
       </c>
       <c r="B427" t="n">
-        <v>130560</v>
+        <v>161271</v>
       </c>
       <c r="C427" t="s">
         <v>2949</v>
@@ -41732,7 +41732,7 @@
         <v>38111</v>
       </c>
       <c r="B429" t="n">
-        <v>130561</v>
+        <v>161272</v>
       </c>
       <c r="C429" t="s">
         <v>2963</v>
@@ -41874,7 +41874,7 @@
         <v>38111</v>
       </c>
       <c r="B431" t="n">
-        <v>130562</v>
+        <v>161273</v>
       </c>
       <c r="C431" t="s">
         <v>2977</v>
@@ -42014,7 +42014,7 @@
         <v>38111</v>
       </c>
       <c r="B433" t="n">
-        <v>130563</v>
+        <v>161274</v>
       </c>
       <c r="C433" t="s">
         <v>2990</v>
@@ -42081,7 +42081,7 @@
         <v>38111</v>
       </c>
       <c r="B434" t="n">
-        <v>130564</v>
+        <v>161275</v>
       </c>
       <c r="C434" t="s">
         <v>2996</v>
@@ -42152,7 +42152,7 @@
         <v>38111</v>
       </c>
       <c r="B435" t="n">
-        <v>130565</v>
+        <v>161276</v>
       </c>
       <c r="C435" t="s">
         <v>3003</v>
@@ -42223,7 +42223,7 @@
         <v>38111</v>
       </c>
       <c r="B436" t="n">
-        <v>130566</v>
+        <v>161277</v>
       </c>
       <c r="C436" t="s">
         <v>3010</v>
@@ -42355,7 +42355,7 @@
         <v>38111</v>
       </c>
       <c r="B438" t="n">
-        <v>130567</v>
+        <v>161278</v>
       </c>
       <c r="C438" t="s">
         <v>3023</v>
@@ -42426,7 +42426,7 @@
         <v>38111</v>
       </c>
       <c r="B439" t="n">
-        <v>130568</v>
+        <v>161279</v>
       </c>
       <c r="C439" t="s">
         <v>3030</v>
@@ -42568,7 +42568,7 @@
         <v>38111</v>
       </c>
       <c r="B441" t="n">
-        <v>130569</v>
+        <v>161280</v>
       </c>
       <c r="C441" t="s">
         <v>3042</v>
@@ -42777,7 +42777,7 @@
         <v>38111</v>
       </c>
       <c r="B444" t="n">
-        <v>130570</v>
+        <v>161281</v>
       </c>
       <c r="C444" t="s">
         <v>3064</v>
@@ -42848,7 +42848,7 @@
         <v>38111</v>
       </c>
       <c r="B445" t="n">
-        <v>130571</v>
+        <v>161282</v>
       </c>
       <c r="C445" t="s">
         <v>3071</v>
@@ -42919,7 +42919,7 @@
         <v>38111</v>
       </c>
       <c r="B446" t="n">
-        <v>130572</v>
+        <v>161283</v>
       </c>
       <c r="C446" t="s">
         <v>3078</v>
@@ -42990,7 +42990,7 @@
         <v>38111</v>
       </c>
       <c r="B447" t="n">
-        <v>130573</v>
+        <v>161284</v>
       </c>
       <c r="C447" t="s">
         <v>3084</v>
@@ -43057,7 +43057,7 @@
         <v>38111</v>
       </c>
       <c r="B448" t="n">
-        <v>130574</v>
+        <v>161285</v>
       </c>
       <c r="C448" t="s">
         <v>3091</v>
@@ -43128,7 +43128,7 @@
         <v>38111</v>
       </c>
       <c r="B449" t="n">
-        <v>130575</v>
+        <v>161286</v>
       </c>
       <c r="C449" t="s">
         <v>3097</v>
@@ -43203,7 +43203,7 @@
         <v>38111</v>
       </c>
       <c r="B450" t="n">
-        <v>130576</v>
+        <v>130406</v>
       </c>
       <c r="C450" t="s">
         <v>3107</v>
@@ -43274,7 +43274,7 @@
         <v>38111</v>
       </c>
       <c r="B451" t="n">
-        <v>130577</v>
+        <v>161287</v>
       </c>
       <c r="C451" t="s">
         <v>3114</v>
@@ -43345,7 +43345,7 @@
         <v>38111</v>
       </c>
       <c r="B452" t="n">
-        <v>130578</v>
+        <v>161288</v>
       </c>
       <c r="C452" t="s">
         <v>3121</v>
@@ -43416,7 +43416,7 @@
         <v>38111</v>
       </c>
       <c r="B453" t="n">
-        <v>130579</v>
+        <v>161289</v>
       </c>
       <c r="C453" t="s">
         <v>3128</v>
@@ -43487,7 +43487,7 @@
         <v>38111</v>
       </c>
       <c r="B454" t="n">
-        <v>130580</v>
+        <v>161290</v>
       </c>
       <c r="C454" t="s">
         <v>3135</v>
@@ -43558,7 +43558,7 @@
         <v>38111</v>
       </c>
       <c r="B455" t="n">
-        <v>130581</v>
+        <v>161291</v>
       </c>
       <c r="C455" t="s">
         <v>3142</v>
@@ -43629,7 +43629,7 @@
         <v>38111</v>
       </c>
       <c r="B456" t="n">
-        <v>130582</v>
+        <v>161292</v>
       </c>
       <c r="C456" t="s">
         <v>3148</v>
@@ -43700,7 +43700,7 @@
         <v>38111</v>
       </c>
       <c r="B457" t="n">
-        <v>130583</v>
+        <v>161293</v>
       </c>
       <c r="C457" t="s">
         <v>3155</v>
@@ -43771,7 +43771,7 @@
         <v>38111</v>
       </c>
       <c r="B458" t="n">
-        <v>130584</v>
+        <v>161294</v>
       </c>
       <c r="C458" t="s">
         <v>3162</v>
@@ -43838,7 +43838,7 @@
         <v>38111</v>
       </c>
       <c r="B459" t="n">
-        <v>130585</v>
+        <v>161295</v>
       </c>
       <c r="C459" t="s">
         <v>3168</v>
@@ -43909,7 +43909,7 @@
         <v>38111</v>
       </c>
       <c r="B460" t="n">
-        <v>130586</v>
+        <v>161296</v>
       </c>
       <c r="C460" t="s">
         <v>3174</v>
@@ -44051,7 +44051,7 @@
         <v>38111</v>
       </c>
       <c r="B462" t="n">
-        <v>130587</v>
+        <v>161297</v>
       </c>
       <c r="C462" t="s">
         <v>3187</v>
@@ -44122,7 +44122,7 @@
         <v>38111</v>
       </c>
       <c r="B463" t="n">
-        <v>130588</v>
+        <v>161298</v>
       </c>
       <c r="C463" t="s">
         <v>3194</v>
@@ -44193,7 +44193,7 @@
         <v>38111</v>
       </c>
       <c r="B464" t="n">
-        <v>130589</v>
+        <v>161299</v>
       </c>
       <c r="C464" t="s">
         <v>3202</v>
@@ -44264,7 +44264,7 @@
         <v>38111</v>
       </c>
       <c r="B465" t="n">
-        <v>130590</v>
+        <v>161300</v>
       </c>
       <c r="C465" t="s">
         <v>3209</v>
@@ -44335,7 +44335,7 @@
         <v>38111</v>
       </c>
       <c r="B466" t="n">
-        <v>130591</v>
+        <v>161301</v>
       </c>
       <c r="C466" t="s">
         <v>3216</v>
@@ -44406,7 +44406,7 @@
         <v>38111</v>
       </c>
       <c r="B467" t="n">
-        <v>130592</v>
+        <v>161302</v>
       </c>
       <c r="C467" t="s">
         <v>3223</v>
@@ -44477,7 +44477,7 @@
         <v>38111</v>
       </c>
       <c r="B468" t="n">
-        <v>130593</v>
+        <v>161303</v>
       </c>
       <c r="C468" t="s">
         <v>3230</v>
@@ -44548,7 +44548,7 @@
         <v>38111</v>
       </c>
       <c r="B469" t="n">
-        <v>130594</v>
+        <v>161304</v>
       </c>
       <c r="C469" t="s">
         <v>3237</v>
@@ -44619,7 +44619,7 @@
         <v>38111</v>
       </c>
       <c r="B470" t="n">
-        <v>130595</v>
+        <v>161305</v>
       </c>
       <c r="C470" t="s">
         <v>3244</v>
@@ -44761,7 +44761,7 @@
         <v>38111</v>
       </c>
       <c r="B472" t="n">
-        <v>130596</v>
+        <v>161306</v>
       </c>
       <c r="C472" t="s">
         <v>3258</v>
@@ -44832,7 +44832,7 @@
         <v>38111</v>
       </c>
       <c r="B473" t="n">
-        <v>130597</v>
+        <v>161307</v>
       </c>
       <c r="C473" t="s">
         <v>3265</v>
@@ -44903,7 +44903,7 @@
         <v>38111</v>
       </c>
       <c r="B474" t="n">
-        <v>130598</v>
+        <v>161308</v>
       </c>
       <c r="C474" t="s">
         <v>3271</v>
@@ -45252,7 +45252,7 @@
         <v>38111</v>
       </c>
       <c r="B479" t="n">
-        <v>130599</v>
+        <v>161309</v>
       </c>
       <c r="C479" t="s">
         <v>3306</v>
@@ -45323,7 +45323,7 @@
         <v>38111</v>
       </c>
       <c r="B480" t="n">
-        <v>130600</v>
+        <v>161310</v>
       </c>
       <c r="C480" t="s">
         <v>3313</v>
@@ -45465,7 +45465,7 @@
         <v>38111</v>
       </c>
       <c r="B482" t="n">
-        <v>130601</v>
+        <v>161311</v>
       </c>
       <c r="C482" t="s">
         <v>3324</v>
@@ -45536,7 +45536,7 @@
         <v>38111</v>
       </c>
       <c r="B483" t="n">
-        <v>130602</v>
+        <v>161312</v>
       </c>
       <c r="C483" t="s">
         <v>3331</v>
@@ -45607,7 +45607,7 @@
         <v>38111</v>
       </c>
       <c r="B484" t="n">
-        <v>130603</v>
+        <v>161313</v>
       </c>
       <c r="C484" t="s">
         <v>3338</v>
@@ -45678,7 +45678,7 @@
         <v>38111</v>
       </c>
       <c r="B485" t="n">
-        <v>130604</v>
+        <v>161314</v>
       </c>
       <c r="C485" t="s">
         <v>3345</v>
@@ -45749,7 +45749,7 @@
         <v>38111</v>
       </c>
       <c r="B486" t="n">
-        <v>130605</v>
+        <v>161315</v>
       </c>
       <c r="C486" t="s">
         <v>3352</v>
@@ -45820,7 +45820,7 @@
         <v>38111</v>
       </c>
       <c r="B487" t="n">
-        <v>130606</v>
+        <v>161316</v>
       </c>
       <c r="C487" t="s">
         <v>3360</v>
@@ -45889,7 +45889,7 @@
         <v>38111</v>
       </c>
       <c r="B488" t="n">
-        <v>130607</v>
+        <v>161317</v>
       </c>
       <c r="C488" t="s">
         <v>3367</v>
@@ -46027,7 +46027,7 @@
         <v>38111</v>
       </c>
       <c r="B490" t="n">
-        <v>130608</v>
+        <v>161318</v>
       </c>
       <c r="C490" t="s">
         <v>3381</v>
@@ -46098,7 +46098,7 @@
         <v>38111</v>
       </c>
       <c r="B491" t="n">
-        <v>130609</v>
+        <v>161319</v>
       </c>
       <c r="C491" t="s">
         <v>3386</v>
@@ -46169,7 +46169,7 @@
         <v>38111</v>
       </c>
       <c r="B492" t="n">
-        <v>130610</v>
+        <v>161320</v>
       </c>
       <c r="C492" t="s">
         <v>3392</v>
@@ -46240,7 +46240,7 @@
         <v>38111</v>
       </c>
       <c r="B493" t="n">
-        <v>130611</v>
+        <v>161321</v>
       </c>
       <c r="C493" t="s">
         <v>3400</v>
@@ -46311,7 +46311,7 @@
         <v>38111</v>
       </c>
       <c r="B494" t="n">
-        <v>130612</v>
+        <v>161322</v>
       </c>
       <c r="C494" t="s">
         <v>3407</v>
@@ -46453,7 +46453,7 @@
         <v>38111</v>
       </c>
       <c r="B496" t="n">
-        <v>130613</v>
+        <v>161323</v>
       </c>
       <c r="C496" t="s">
         <v>3420</v>
@@ -46516,7 +46516,7 @@
         <v>38111</v>
       </c>
       <c r="B497" t="n">
-        <v>130614</v>
+        <v>161324</v>
       </c>
       <c r="C497" t="s">
         <v>3427</v>
@@ -46658,7 +46658,7 @@
         <v>38111</v>
       </c>
       <c r="B499" t="n">
-        <v>130615</v>
+        <v>161325</v>
       </c>
       <c r="C499" t="s">
         <v>3440</v>
@@ -46729,7 +46729,7 @@
         <v>38111</v>
       </c>
       <c r="B500" t="n">
-        <v>130616</v>
+        <v>161326</v>
       </c>
       <c r="C500" t="s">
         <v>3446</v>
@@ -46800,7 +46800,7 @@
         <v>38111</v>
       </c>
       <c r="B501" t="n">
-        <v>130617</v>
+        <v>161327</v>
       </c>
       <c r="C501" t="s">
         <v>3453</v>
@@ -46871,7 +46871,7 @@
         <v>38111</v>
       </c>
       <c r="B502" t="n">
-        <v>130618</v>
+        <v>161328</v>
       </c>
       <c r="C502" t="s">
         <v>3460</v>
@@ -46940,7 +46940,7 @@
         <v>38111</v>
       </c>
       <c r="B503" t="n">
-        <v>130619</v>
+        <v>161329</v>
       </c>
       <c r="C503" t="s">
         <v>3466</v>
@@ -47074,7 +47074,7 @@
         <v>38111</v>
       </c>
       <c r="B505" t="n">
-        <v>130620</v>
+        <v>161330</v>
       </c>
       <c r="C505" t="s">
         <v>3479</v>
@@ -47141,7 +47141,7 @@
         <v>38111</v>
       </c>
       <c r="B506" t="n">
-        <v>130621</v>
+        <v>161331</v>
       </c>
       <c r="C506" t="s">
         <v>3486</v>
@@ -47208,7 +47208,7 @@
         <v>38111</v>
       </c>
       <c r="B507" t="n">
-        <v>130622</v>
+        <v>161332</v>
       </c>
       <c r="C507" t="s">
         <v>3492</v>
@@ -47275,7 +47275,7 @@
         <v>38111</v>
       </c>
       <c r="B508" t="n">
-        <v>130623</v>
+        <v>161333</v>
       </c>
       <c r="C508" t="s">
         <v>3498</v>
@@ -47342,7 +47342,7 @@
         <v>38111</v>
       </c>
       <c r="B509" t="n">
-        <v>130624</v>
+        <v>161334</v>
       </c>
       <c r="C509" t="s">
         <v>3505</v>
@@ -47409,7 +47409,7 @@
         <v>38111</v>
       </c>
       <c r="B510" t="n">
-        <v>130625</v>
+        <v>161335</v>
       </c>
       <c r="C510" t="s">
         <v>3512</v>
@@ -47476,7 +47476,7 @@
         <v>38111</v>
       </c>
       <c r="B511" t="n">
-        <v>130626</v>
+        <v>161336</v>
       </c>
       <c r="C511" t="s">
         <v>3520</v>
@@ -47543,7 +47543,7 @@
         <v>38111</v>
       </c>
       <c r="B512" t="n">
-        <v>130627</v>
+        <v>161337</v>
       </c>
       <c r="C512" t="s">
         <v>3527</v>
@@ -47614,7 +47614,7 @@
         <v>38111</v>
       </c>
       <c r="B513" t="n">
-        <v>130628</v>
+        <v>161338</v>
       </c>
       <c r="C513" t="s">
         <v>3535</v>
@@ -47685,7 +47685,7 @@
         <v>38111</v>
       </c>
       <c r="B514" t="n">
-        <v>130629</v>
+        <v>161339</v>
       </c>
       <c r="C514" t="s">
         <v>3541</v>
@@ -47756,7 +47756,7 @@
         <v>38111</v>
       </c>
       <c r="B515" t="n">
-        <v>130630</v>
+        <v>161340</v>
       </c>
       <c r="C515" t="s">
         <v>3549</v>
@@ -47827,7 +47827,7 @@
         <v>38111</v>
       </c>
       <c r="B516" t="n">
-        <v>130631</v>
+        <v>130398</v>
       </c>
       <c r="C516" t="s">
         <v>3557</v>
@@ -47898,7 +47898,7 @@
         <v>38111</v>
       </c>
       <c r="B517" t="n">
-        <v>130632</v>
+        <v>161341</v>
       </c>
       <c r="C517" t="s">
         <v>3564</v>
@@ -47969,7 +47969,7 @@
         <v>38111</v>
       </c>
       <c r="B518" t="n">
-        <v>130633</v>
+        <v>161342</v>
       </c>
       <c r="C518" t="s">
         <v>3571</v>
@@ -48040,7 +48040,7 @@
         <v>38111</v>
       </c>
       <c r="B519" t="n">
-        <v>130634</v>
+        <v>161343</v>
       </c>
       <c r="C519" t="s">
         <v>3579</v>
@@ -48111,7 +48111,7 @@
         <v>38111</v>
       </c>
       <c r="B520" t="n">
-        <v>130635</v>
+        <v>161344</v>
       </c>
       <c r="C520" t="s">
         <v>3586</v>
@@ -48182,7 +48182,7 @@
         <v>38111</v>
       </c>
       <c r="B521" t="n">
-        <v>130636</v>
+        <v>161345</v>
       </c>
       <c r="C521" t="s">
         <v>3593</v>
@@ -48324,7 +48324,7 @@
         <v>38111</v>
       </c>
       <c r="B523" t="n">
-        <v>130637</v>
+        <v>161346</v>
       </c>
       <c r="C523" t="s">
         <v>3609</v>
@@ -48395,7 +48395,7 @@
         <v>38111</v>
       </c>
       <c r="B524" t="n">
-        <v>130638</v>
+        <v>161347</v>
       </c>
       <c r="C524" t="s">
         <v>3616</v>
@@ -48466,7 +48466,7 @@
         <v>38111</v>
       </c>
       <c r="B525" t="n">
-        <v>130639</v>
+        <v>161348</v>
       </c>
       <c r="C525" t="s">
         <v>3624</v>
@@ -48604,7 +48604,7 @@
         <v>38111</v>
       </c>
       <c r="B527" t="n">
-        <v>130640</v>
+        <v>161349</v>
       </c>
       <c r="C527" t="s">
         <v>3639</v>
@@ -48675,7 +48675,7 @@
         <v>38111</v>
       </c>
       <c r="B528" t="n">
-        <v>130630</v>
+        <v>130398</v>
       </c>
       <c r="C528" t="s">
         <v>3557</v>
@@ -48746,7 +48746,7 @@
         <v>38111</v>
       </c>
       <c r="B529" t="n">
-        <v>130641</v>
+        <v>161350</v>
       </c>
       <c r="C529" t="s">
         <v>3654</v>
@@ -48888,7 +48888,7 @@
         <v>38111</v>
       </c>
       <c r="B531" t="n">
-        <v>130642</v>
+        <v>161351</v>
       </c>
       <c r="C531" t="s">
         <v>3670</v>
@@ -48959,7 +48959,7 @@
         <v>38111</v>
       </c>
       <c r="B532" t="n">
-        <v>130643</v>
+        <v>161352</v>
       </c>
       <c r="C532" t="s">
         <v>3677</v>
@@ -49020,7 +49020,7 @@
         <v>38111</v>
       </c>
       <c r="B533" t="n">
-        <v>130382</v>
+        <v>130400</v>
       </c>
       <c r="C533" t="s">
         <v>1202</v>
@@ -49091,7 +49091,7 @@
         <v>38111</v>
       </c>
       <c r="B534" t="n">
-        <v>130644</v>
+        <v>161353</v>
       </c>
       <c r="C534" t="s">
         <v>3689</v>
@@ -49160,7 +49160,7 @@
         <v>38111</v>
       </c>
       <c r="B535" t="n">
-        <v>130645</v>
+        <v>161354</v>
       </c>
       <c r="C535" t="s">
         <v>3695</v>
@@ -49231,7 +49231,7 @@
         <v>38111</v>
       </c>
       <c r="B536" t="n">
-        <v>130646</v>
+        <v>161355</v>
       </c>
       <c r="C536" t="s">
         <v>3701</v>
@@ -49373,7 +49373,7 @@
         <v>38111</v>
       </c>
       <c r="B538" t="n">
-        <v>130647</v>
+        <v>161356</v>
       </c>
       <c r="C538" t="s">
         <v>3716</v>
@@ -49501,7 +49501,7 @@
         <v>38111</v>
       </c>
       <c r="B540" t="n">
-        <v>130648</v>
+        <v>161357</v>
       </c>
       <c r="C540" t="s">
         <v>3730</v>
@@ -49572,7 +49572,7 @@
         <v>38111</v>
       </c>
       <c r="B541" t="n">
-        <v>130649</v>
+        <v>161358</v>
       </c>
       <c r="C541" t="s">
         <v>3736</v>
@@ -49643,7 +49643,7 @@
         <v>38111</v>
       </c>
       <c r="B542" t="n">
-        <v>130650</v>
+        <v>161359</v>
       </c>
       <c r="C542" t="s">
         <v>3743</v>
@@ -49714,7 +49714,7 @@
         <v>38111</v>
       </c>
       <c r="B543" t="n">
-        <v>130651</v>
+        <v>161360</v>
       </c>
       <c r="C543" t="s">
         <v>3751</v>
@@ -49785,7 +49785,7 @@
         <v>38111</v>
       </c>
       <c r="B544" t="n">
-        <v>130652</v>
+        <v>161361</v>
       </c>
       <c r="C544" t="s">
         <v>3758</v>
@@ -49848,7 +49848,7 @@
         <v>38111</v>
       </c>
       <c r="B545" t="n">
-        <v>130653</v>
+        <v>161362</v>
       </c>
       <c r="C545" t="s">
         <v>3766</v>
@@ -49905,7 +49905,7 @@
         <v>38111</v>
       </c>
       <c r="B546" t="n">
-        <v>130654</v>
+        <v>161363</v>
       </c>
       <c r="C546" t="s">
         <v>3773</v>
@@ -49976,7 +49976,7 @@
         <v>38111</v>
       </c>
       <c r="B547" t="n">
-        <v>130655</v>
+        <v>161364</v>
       </c>
       <c r="C547" t="s">
         <v>3780</v>
@@ -50045,7 +50045,7 @@
         <v>38111</v>
       </c>
       <c r="B548" t="n">
-        <v>130656</v>
+        <v>161365</v>
       </c>
       <c r="C548" t="s">
         <v>3787</v>
@@ -50116,7 +50116,7 @@
         <v>38111</v>
       </c>
       <c r="B549" t="n">
-        <v>130657</v>
+        <v>161366</v>
       </c>
       <c r="C549" t="s">
         <v>3794</v>
@@ -50187,7 +50187,7 @@
         <v>38111</v>
       </c>
       <c r="B550" t="n">
-        <v>130658</v>
+        <v>161367</v>
       </c>
       <c r="C550" t="s">
         <v>3800</v>
@@ -50258,7 +50258,7 @@
         <v>38111</v>
       </c>
       <c r="B551" t="n">
-        <v>130659</v>
+        <v>161368</v>
       </c>
       <c r="C551" t="s">
         <v>3806</v>
@@ -50329,7 +50329,7 @@
         <v>38111</v>
       </c>
       <c r="B552" t="n">
-        <v>130660</v>
+        <v>161369</v>
       </c>
       <c r="C552" t="s">
         <v>3813</v>
@@ -50400,7 +50400,7 @@
         <v>38111</v>
       </c>
       <c r="B553" t="n">
-        <v>130661</v>
+        <v>161370</v>
       </c>
       <c r="C553" t="s">
         <v>3821</v>
@@ -50471,7 +50471,7 @@
         <v>38111</v>
       </c>
       <c r="B554" t="n">
-        <v>130662</v>
+        <v>161371</v>
       </c>
       <c r="C554" t="s">
         <v>3828</v>
@@ -50542,7 +50542,7 @@
         <v>38111</v>
       </c>
       <c r="B555" t="n">
-        <v>130663</v>
+        <v>161372</v>
       </c>
       <c r="C555" t="s">
         <v>3835</v>
@@ -50605,7 +50605,7 @@
         <v>38111</v>
       </c>
       <c r="B556" t="n">
-        <v>130664</v>
+        <v>161373</v>
       </c>
       <c r="C556" t="s">
         <v>3842</v>
@@ -50676,7 +50676,7 @@
         <v>38111</v>
       </c>
       <c r="B557" t="n">
-        <v>130665</v>
+        <v>161374</v>
       </c>
       <c r="C557" t="s">
         <v>3850</v>
@@ -50733,7 +50733,7 @@
         <v>38111</v>
       </c>
       <c r="B558" t="n">
-        <v>130666</v>
+        <v>161375</v>
       </c>
       <c r="C558" t="s">
         <v>3856</v>
@@ -50804,7 +50804,7 @@
         <v>38111</v>
       </c>
       <c r="B559" t="n">
-        <v>130667</v>
+        <v>161376</v>
       </c>
       <c r="C559" t="s">
         <v>3864</v>
@@ -50875,7 +50875,7 @@
         <v>38111</v>
       </c>
       <c r="B560" t="n">
-        <v>130668</v>
+        <v>161377</v>
       </c>
       <c r="C560" t="s">
         <v>3872</v>
@@ -50946,7 +50946,7 @@
         <v>38111</v>
       </c>
       <c r="B561" t="n">
-        <v>130669</v>
+        <v>161378</v>
       </c>
       <c r="C561" t="s">
         <v>3879</v>
@@ -51009,7 +51009,7 @@
         <v>38111</v>
       </c>
       <c r="B562" t="n">
-        <v>130670</v>
+        <v>161379</v>
       </c>
       <c r="C562" t="s">
         <v>3887</v>
@@ -51080,7 +51080,7 @@
         <v>38111</v>
       </c>
       <c r="B563" t="n">
-        <v>130671</v>
+        <v>161380</v>
       </c>
       <c r="C563" t="s">
         <v>3894</v>
@@ -51151,7 +51151,7 @@
         <v>38111</v>
       </c>
       <c r="B564" t="n">
-        <v>130672</v>
+        <v>161381</v>
       </c>
       <c r="C564" t="s">
         <v>3900</v>
@@ -51287,7 +51287,7 @@
         <v>38111</v>
       </c>
       <c r="B566" t="n">
-        <v>130673</v>
+        <v>161382</v>
       </c>
       <c r="C566" t="s">
         <v>3913</v>
@@ -51352,7 +51352,7 @@
         <v>38111</v>
       </c>
       <c r="B567" t="n">
-        <v>130674</v>
+        <v>161383</v>
       </c>
       <c r="C567" t="s">
         <v>3920</v>
@@ -51421,7 +51421,7 @@
         <v>38111</v>
       </c>
       <c r="B568" t="n">
-        <v>130675</v>
+        <v>161384</v>
       </c>
       <c r="C568" t="s">
         <v>3927</v>
@@ -51551,7 +51551,7 @@
         <v>38111</v>
       </c>
       <c r="B570" t="n">
-        <v>130676</v>
+        <v>161385</v>
       </c>
       <c r="C570" t="s">
         <v>3940</v>
@@ -51681,7 +51681,7 @@
         <v>38111</v>
       </c>
       <c r="B572" t="n">
-        <v>130677</v>
+        <v>161386</v>
       </c>
       <c r="C572" t="s">
         <v>3951</v>
@@ -51738,7 +51738,7 @@
         <v>38111</v>
       </c>
       <c r="B573" t="n">
-        <v>130678</v>
+        <v>161387</v>
       </c>
       <c r="C573" t="s">
         <v>3957</v>
@@ -51803,7 +51803,7 @@
         <v>38111</v>
       </c>
       <c r="B574" t="n">
-        <v>130679</v>
+        <v>161388</v>
       </c>
       <c r="C574" t="s">
         <v>3964</v>
@@ -51860,7 +51860,7 @@
         <v>38111</v>
       </c>
       <c r="B575" t="n">
-        <v>130575</v>
+        <v>130406</v>
       </c>
       <c r="C575" t="s">
         <v>3107</v>
@@ -51974,7 +51974,7 @@
         <v>38111</v>
       </c>
       <c r="B577" t="n">
-        <v>130680</v>
+        <v>161389</v>
       </c>
       <c r="C577" t="s">
         <v>3981</v>
